--- a/xlsx/夏威夷原住民_intext.xlsx
+++ b/xlsx/夏威夷原住民_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_夏威夷原住民</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_夏威夷原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
